--- a/Analisis Resultados/Python/Análisis_PythonCBC_CubeMaster_DiaP1.xlsx
+++ b/Analisis Resultados/Python/Análisis_PythonCBC_CubeMaster_DiaP1.xlsx
@@ -21,14 +21,14 @@
   </definedNames>
   <calcPr calcId="152511"/>
   <pivotCaches>
-    <pivotCache cacheId="7" r:id="rId4"/>
-    <pivotCache cacheId="12" r:id="rId5"/>
+    <pivotCache cacheId="11" r:id="rId4"/>
+    <pivotCache cacheId="10" r:id="rId5"/>
   </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="19">
   <si>
     <t>Container</t>
   </si>
@@ -82,12 +82,6 @@
   </si>
   <si>
     <t>PALETS PLATAFORMA</t>
-  </si>
-  <si>
-    <t>100.0</t>
-  </si>
-  <si>
-    <t>60.0</t>
   </si>
   <si>
     <t>Sum of Loaded2</t>
@@ -669,7 +663,9 @@
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="14" maxValue="46"/>
     </cacheField>
     <cacheField name="Column #" numFmtId="0">
-      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
+      <sharedItems containsNonDate="0" containsString="0" containsBlank="1" count="1">
+        <m/>
+      </sharedItems>
     </cacheField>
     <cacheField name="Customer Product Code" numFmtId="0">
       <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
@@ -684,9 +680,9 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Federico Muñoz" refreshedDate="42511.431749537034" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="6">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Federico Muñoz" refreshedDate="42511.788223263888" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="8">
   <cacheSource type="worksheet">
-    <worksheetSource ref="A4:H10" sheet="CBC"/>
+    <worksheetSource ref="A4:H12" sheet="CBC"/>
   </cacheSource>
   <cacheFields count="8">
     <cacheField name="Container" numFmtId="0">
@@ -695,13 +691,13 @@
       </sharedItems>
     </cacheField>
     <cacheField name="Loaded" numFmtId="0">
-      <sharedItems/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="100" maxValue="100"/>
     </cacheField>
     <cacheField name="Vol. Effi." numFmtId="0">
-      <sharedItems/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="100" maxValue="100"/>
     </cacheField>
     <cacheField name="Area Effi." numFmtId="0">
-      <sharedItems/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="60" maxValue="60"/>
     </cacheField>
     <cacheField name="SKU" numFmtId="0">
       <sharedItems count="2">
@@ -710,10 +706,19 @@
       </sharedItems>
     </cacheField>
     <cacheField name="Loaded2" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="2" maxValue="12"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="7" maxValue="8"/>
     </cacheField>
     <cacheField name="Column #" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="8"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="8" count="8">
+        <n v="1"/>
+        <n v="2"/>
+        <n v="3"/>
+        <n v="4"/>
+        <n v="5"/>
+        <n v="6"/>
+        <n v="7"/>
+        <n v="8"/>
+      </sharedItems>
     </cacheField>
     <cacheField name="Customer Product Code" numFmtId="0">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="999999" maxValue="999999"/>
@@ -736,7 +741,7 @@
     <n v="61.135301630000001"/>
     <x v="0"/>
     <n v="14"/>
-    <m/>
+    <x v="0"/>
     <m/>
   </r>
   <r>
@@ -746,79 +751,99 @@
     <n v="61.135301630000001"/>
     <x v="1"/>
     <n v="46"/>
-    <m/>
+    <x v="0"/>
     <m/>
   </r>
 </pivotCacheRecords>
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="6">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="8">
   <r>
     <x v="0"/>
-    <s v="100.0"/>
-    <s v="100.0"/>
-    <s v="60.0"/>
+    <n v="100"/>
+    <n v="100"/>
+    <n v="60"/>
     <x v="0"/>
-    <n v="2"/>
-    <n v="1"/>
+    <n v="7"/>
+    <x v="0"/>
     <n v="999999"/>
   </r>
   <r>
     <x v="0"/>
-    <s v="100.0"/>
-    <s v="100.0"/>
-    <s v="60.0"/>
+    <n v="100"/>
+    <n v="100"/>
+    <n v="60"/>
     <x v="1"/>
-    <n v="12"/>
-    <n v="2"/>
+    <n v="8"/>
+    <x v="1"/>
     <n v="999999"/>
   </r>
   <r>
     <x v="0"/>
-    <s v="100.0"/>
-    <s v="100.0"/>
-    <s v="60.0"/>
-    <x v="0"/>
-    <n v="12"/>
-    <n v="3"/>
+    <n v="100"/>
+    <n v="100"/>
+    <n v="60"/>
+    <x v="1"/>
+    <n v="7"/>
+    <x v="2"/>
     <n v="999999"/>
   </r>
   <r>
     <x v="0"/>
-    <s v="100.0"/>
-    <s v="100.0"/>
-    <s v="60.0"/>
+    <n v="100"/>
+    <n v="100"/>
+    <n v="60"/>
     <x v="1"/>
-    <n v="12"/>
-    <n v="6"/>
+    <n v="7"/>
+    <x v="3"/>
     <n v="999999"/>
   </r>
   <r>
     <x v="0"/>
-    <s v="100.0"/>
-    <s v="100.0"/>
-    <s v="60.0"/>
-    <x v="1"/>
-    <n v="12"/>
+    <n v="100"/>
+    <n v="100"/>
+    <n v="60"/>
+    <x v="0"/>
     <n v="7"/>
+    <x v="4"/>
     <n v="999999"/>
   </r>
   <r>
     <x v="0"/>
-    <s v="100.0"/>
-    <s v="100.0"/>
-    <s v="60.0"/>
+    <n v="100"/>
+    <n v="100"/>
+    <n v="60"/>
     <x v="1"/>
-    <n v="10"/>
     <n v="8"/>
+    <x v="5"/>
+    <n v="999999"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="100"/>
+    <n v="100"/>
+    <n v="60"/>
+    <x v="1"/>
+    <n v="8"/>
+    <x v="6"/>
+    <n v="999999"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="100"/>
+    <n v="100"/>
+    <n v="60"/>
+    <x v="1"/>
+    <n v="8"/>
+    <x v="7"/>
     <n v="999999"/>
   </r>
 </pivotCacheRecords>
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable3" cacheId="7" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" compact="0" compactData="0" gridDropZones="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable3" cacheId="11" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" compact="0" compactData="0" gridDropZones="1" multipleFieldFilters="0">
   <location ref="A2:C6" firstHeaderRow="2" firstDataRow="2" firstDataCol="2"/>
   <pivotFields count="8">
     <pivotField axis="axisRow" compact="0" outline="0" showAll="0" defaultSubtotal="0">
@@ -876,7 +901,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable8" cacheId="12" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" compact="0" compactData="0" gridDropZones="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable8" cacheId="10" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" compact="0" compactData="0" gridDropZones="1" multipleFieldFilters="0">
   <location ref="F2:H6" firstHeaderRow="2" firstDataRow="2" firstDataCol="2"/>
   <pivotFields count="8">
     <pivotField axis="axisRow" compact="0" outline="0" showAll="0" defaultSubtotal="0">
@@ -899,7 +924,18 @@
       </items>
     </pivotField>
     <pivotField dataField="1" compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
+      <items count="8">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+      </items>
+    </pivotField>
     <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
   </pivotFields>
   <rowFields count="2">
@@ -1199,7 +1235,7 @@
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J31" sqref="J31"/>
+      <selection activeCell="I6" sqref="F1:I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1210,8 +1246,8 @@
     <col min="4" max="4" width="5.1796875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="24.6328125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="36.26953125" customWidth="1"/>
-    <col min="8" max="8" width="5.08984375" customWidth="1"/>
-    <col min="9" max="10" width="5.1796875" customWidth="1"/>
+    <col min="8" max="9" width="5.08984375" customWidth="1"/>
+    <col min="10" max="10" width="5.1796875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.35">
@@ -1220,9 +1256,9 @@
       </c>
       <c r="G1" s="4"/>
       <c r="H1" s="4">
-        <v>0.67</v>
-      </c>
-      <c r="I1" t="s">
+        <v>1.94</v>
+      </c>
+      <c r="I1" s="4" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1231,10 +1267,11 @@
         <v>6</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G2" s="4"/>
       <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
@@ -1255,6 +1292,7 @@
       <c r="H3" s="4" t="s">
         <v>5</v>
       </c>
+      <c r="I3" s="4"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
@@ -1275,6 +1313,7 @@
       <c r="H4" s="5">
         <v>14</v>
       </c>
+      <c r="I4" s="4"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
@@ -1295,6 +1334,7 @@
       <c r="H5" s="5">
         <v>46</v>
       </c>
+      <c r="I5" s="4"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
@@ -1310,6 +1350,7 @@
       <c r="H6" s="5">
         <v>60</v>
       </c>
+      <c r="I6" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1423,10 +1464,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F1048576"/>
+      <selection sqref="A1:H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1483,20 +1524,20 @@
       <c r="A5" t="s">
         <v>15</v>
       </c>
-      <c r="B5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" t="s">
-        <v>19</v>
+      <c r="B5">
+        <v>100</v>
+      </c>
+      <c r="C5">
+        <v>100</v>
+      </c>
+      <c r="D5">
+        <v>60</v>
       </c>
       <c r="E5" t="s">
         <v>14</v>
       </c>
       <c r="F5">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -1509,20 +1550,20 @@
       <c r="A6" t="s">
         <v>15</v>
       </c>
-      <c r="B6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" t="s">
-        <v>19</v>
+      <c r="B6">
+        <v>100</v>
+      </c>
+      <c r="C6">
+        <v>100</v>
+      </c>
+      <c r="D6">
+        <v>60</v>
       </c>
       <c r="E6" t="s">
         <v>13</v>
       </c>
       <c r="F6">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="G6">
         <v>2</v>
@@ -1535,20 +1576,20 @@
       <c r="A7" t="s">
         <v>15</v>
       </c>
-      <c r="B7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" t="s">
-        <v>19</v>
+      <c r="B7">
+        <v>100</v>
+      </c>
+      <c r="C7">
+        <v>100</v>
+      </c>
+      <c r="D7">
+        <v>60</v>
       </c>
       <c r="E7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F7">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="G7">
         <v>3</v>
@@ -1561,23 +1602,23 @@
       <c r="A8" t="s">
         <v>15</v>
       </c>
-      <c r="B8" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" t="s">
-        <v>18</v>
-      </c>
-      <c r="D8" t="s">
-        <v>19</v>
+      <c r="B8">
+        <v>100</v>
+      </c>
+      <c r="C8">
+        <v>100</v>
+      </c>
+      <c r="D8">
+        <v>60</v>
       </c>
       <c r="E8" t="s">
         <v>13</v>
       </c>
       <c r="F8">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="G8">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H8">
         <v>999999</v>
@@ -1587,23 +1628,23 @@
       <c r="A9" t="s">
         <v>15</v>
       </c>
-      <c r="B9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D9" t="s">
-        <v>19</v>
+      <c r="B9">
+        <v>100</v>
+      </c>
+      <c r="C9">
+        <v>100</v>
+      </c>
+      <c r="D9">
+        <v>60</v>
       </c>
       <c r="E9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F9">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="G9">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H9">
         <v>999999</v>
@@ -1613,25 +1654,77 @@
       <c r="A10" t="s">
         <v>15</v>
       </c>
-      <c r="B10" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" t="s">
-        <v>18</v>
-      </c>
-      <c r="D10" t="s">
-        <v>19</v>
+      <c r="B10">
+        <v>100</v>
+      </c>
+      <c r="C10">
+        <v>100</v>
+      </c>
+      <c r="D10">
+        <v>60</v>
       </c>
       <c r="E10" t="s">
         <v>13</v>
       </c>
       <c r="F10">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G10">
+        <v>6</v>
+      </c>
+      <c r="H10">
+        <v>999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11">
+        <v>100</v>
+      </c>
+      <c r="C11">
+        <v>100</v>
+      </c>
+      <c r="D11">
+        <v>60</v>
+      </c>
+      <c r="E11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F11">
         <v>8</v>
       </c>
-      <c r="H10">
+      <c r="G11">
+        <v>7</v>
+      </c>
+      <c r="H11">
+        <v>999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12">
+        <v>100</v>
+      </c>
+      <c r="C12">
+        <v>100</v>
+      </c>
+      <c r="D12">
+        <v>60</v>
+      </c>
+      <c r="E12" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12">
+        <v>8</v>
+      </c>
+      <c r="G12">
+        <v>8</v>
+      </c>
+      <c r="H12">
         <v>999999</v>
       </c>
     </row>
